--- a/documents/Anh-Viet.xlsx
+++ b/documents/Anh-Viet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Month</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>Khi tạo mới kế hoạch, nếu user không nhập bất kỳ data nào, show MSG "Hãy nhập tổng ngân sách"</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -361,6 +370,7 @@
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,43 +969,48 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>

--- a/documents/Anh-Viet.xlsx
+++ b/documents/Anh-Viet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Month</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Khi tạo mới kế hoạch, nếu user không nhập bất kỳ data nào, show MSG "Hãy nhập tổng ngân sách"</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Ngân sách</t>
   </si>
 </sst>
 </file>
@@ -672,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,307 +716,315 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>70</v>
       </c>
     </row>

--- a/documents/Anh-Viet.xlsx
+++ b/documents/Anh-Viet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Month</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Ngân sách</t>
+  </si>
+  <si>
+    <t>Khi user nhập tổng ngân sách nhỏ hơn tổng các ngân sách chi tiết, khi click save, show MSG "Tổng ngân sách không đủ"</t>
   </si>
 </sst>
 </file>
@@ -678,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,6 +1029,11 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Anh-Viet.xlsx
+++ b/documents/Anh-Viet.xlsx
@@ -86,9 +86,6 @@
     <t>Edit</t>
   </si>
   <si>
-    <t>Chỉnh sửa</t>
-  </si>
-  <si>
     <t>Deleted</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Khi user nhập tổng ngân sách nhỏ hơn tổng các ngân sách chi tiết, khi click save, show MSG "Tổng ngân sách không đủ"</t>
+  </si>
+  <si>
+    <t>Sửa</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -719,15 +719,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -794,246 +794,246 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Anh-Viet.xlsx
+++ b/documents/Anh-Viet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Month</t>
   </si>
@@ -204,12 +204,6 @@
     <t>Enter data into all fields except “Ngày đáo hạn” field, click save, show MSG: “Bạn phải nhập ngày đáo hạn!”</t>
   </si>
   <si>
-    <t>Debt Type</t>
-  </si>
-  <si>
-    <t>Kiểu</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>Total (Của func vay và cho vay</t>
   </si>
   <si>
-    <t>Tổng số tiền</t>
-  </si>
-  <si>
     <t>Total (Của func kế hoạch)</t>
   </si>
   <si>
@@ -304,6 +295,33 @@
   </si>
   <si>
     <t>Sửa</t>
+  </si>
+  <si>
+    <t>View borrow</t>
+  </si>
+  <si>
+    <t>Xem khoản vay</t>
+  </si>
+  <si>
+    <t>View lend</t>
+  </si>
+  <si>
+    <t>View expense</t>
+  </si>
+  <si>
+    <t>Xem chi phí</t>
+  </si>
+  <si>
+    <t>View income</t>
+  </si>
+  <si>
+    <t>Xem thu nhập</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>Xem khoản cho vay</t>
   </si>
 </sst>
 </file>
@@ -681,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,15 +737,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -794,7 +812,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,155 +903,179 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
